--- a/data/regdata.xlsx
+++ b/data/regdata.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -721,24 +721,46 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>asdsd</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>1234567888</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>asdk@hjsk.com</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>asdfsd</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uhadslkjhkfjh</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1234567777</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ajhsd@jash.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>asjhd</t>
         </is>
       </c>
     </row>

--- a/data/regdata.xlsx
+++ b/data/regdata.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -743,24 +743,46 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>uhadslkjhkfjh</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>1234567777</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>ajhsd@jash.com</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>asjhd</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sdfdhjkfgdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5465489130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>asdjhf@hj.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ajshdfg</t>
         </is>
       </c>
     </row>

--- a/data/regdata.xlsx
+++ b/data/regdata.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -765,24 +765,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>sdfdhjkfgdf</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>5465489130</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>asdjhf@hj.com</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>ajshdfg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>skdjhfjkdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1234564321</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jshdgf@cd.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>jdkshff</t>
         </is>
       </c>
     </row>

--- a/data/regdata.xlsx
+++ b/data/regdata.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -787,24 +787,46 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>skdjhfjkdf</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>1234564321</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>jshdgf@cd.com</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>jdkshff</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5649813207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>stu@gmail.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Chess</t>
         </is>
       </c>
     </row>

--- a/data/regdata.xlsx
+++ b/data/regdata.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -767,66 +767,88 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>sdfdhjkfgdf</t>
+          <t>kjsdhjhkfd</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>5465489130</t>
+          <t>7896543210</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>asdjhf@hj.com</t>
+          <t>kahdjs@hfd.com</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>ajshdfg</t>
+          <t>asjgdashjdk</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>skdjhfjkdf</t>
+          <t>sdyfdf</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>1234564321</t>
+          <t>3245678019</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>jshdgf@cd.com</t>
+          <t>asd@hjks.com</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>jdkshff</t>
+          <t>ksldj;</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5649813207</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>stu@gmail.com</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Chess</t>
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>iswlfjhsgdfjk</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>abcdefghij</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>jhksdfhjdfg@jfksd.com</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>hsjdkfgjhkdfg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>hjasgd</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1245789630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>jahsd@jshd.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>jlkhfs</t>
         </is>
       </c>
     </row>

--- a/data/regdata.xlsx
+++ b/data/regdata.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -831,26 +831,49 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>hjasgd</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>1245789630</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>jahsd@jshd.com</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>jlkhfs</t>
         </is>
       </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>fkdjlhgwuihdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5647893210</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sdjhfg@cndj.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/data/regdata.xlsx
+++ b/data/regdata.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -853,27 +853,54 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>fkdjlhgwuihdf</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>5647893210</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>sdjhfg@cndj.com</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>jhsdbfjshdfb</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2315467890</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sdfsdfsdf@gmail.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/data/regdata.xlsx
+++ b/data/regdata.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -876,31 +876,54 @@
       <c r="E17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>jhsdbfjshdfb</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>2315467890</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>sdfsdfsdf@gmail.com</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
       </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>jkdfghkdfjg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5123456789</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fhsdj@mkglf.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/data/regdata.xlsx
+++ b/data/regdata.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -903,27 +903,73 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>jkdfghkdfjg</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>5123456789</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>fhsdj@mkglf.com</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>dummy14</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>1411111111</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>dum14@gmail.com</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>dummy14</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1411111111</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>dum14@gmail.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/data/regdata.xlsx
+++ b/data/regdata.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -949,27 +949,50 @@
       <c r="E20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>dummy14</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>1411111111</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>dum14@gmail.com</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>pubg</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>jhklsdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7896542130</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>hduis@lknd.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
